--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Mag.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H2">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I2">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J2">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q2">
-        <v>0.003277643548666667</v>
+        <v>0.002850361164</v>
       </c>
       <c r="R2">
-        <v>0.029498791938</v>
+        <v>0.025653250476</v>
       </c>
       <c r="S2">
-        <v>0.009366847687798333</v>
+        <v>0.003098995040337432</v>
       </c>
       <c r="T2">
-        <v>0.009366847687798337</v>
+        <v>0.003098995040337432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H3">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I3">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J3">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N3">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O3">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P3">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q3">
-        <v>0.01517220446622223</v>
+        <v>0.025097011758</v>
       </c>
       <c r="R3">
-        <v>0.136549840196</v>
+        <v>0.225873105822</v>
       </c>
       <c r="S3">
-        <v>0.04335911645457888</v>
+        <v>0.02728619655208445</v>
       </c>
       <c r="T3">
-        <v>0.0433591164545789</v>
+        <v>0.02728619655208445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H4">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I4">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J4">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N4">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O4">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P4">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q4">
-        <v>0.001415931748</v>
+        <v>0.000235678086</v>
       </c>
       <c r="R4">
-        <v>0.012743385732</v>
+        <v>0.002121102774</v>
       </c>
       <c r="S4">
-        <v>0.0040464488657497</v>
+        <v>0.0002562360268076606</v>
       </c>
       <c r="T4">
-        <v>0.0040464488657497</v>
+        <v>0.0002562360268076606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H5">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I5">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J5">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N5">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O5">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P5">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q5">
-        <v>0.005393878045111111</v>
+        <v>0.023205635838</v>
       </c>
       <c r="R5">
-        <v>0.048544902406</v>
+        <v>0.208850722542</v>
       </c>
       <c r="S5">
-        <v>0.01541462131099278</v>
+        <v>0.02522983798618671</v>
       </c>
       <c r="T5">
-        <v>0.01541462131099279</v>
+        <v>0.02522983798618671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1.768273</v>
       </c>
       <c r="I6">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J6">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.183918</v>
       </c>
       <c r="O6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q6">
         <v>0.03613524817933333</v>
@@ -824,10 +824,10 @@
         <v>0.325217233614</v>
       </c>
       <c r="S6">
-        <v>0.1032672896948471</v>
+        <v>0.03928728622304378</v>
       </c>
       <c r="T6">
-        <v>0.1032672896948471</v>
+        <v>0.03928728622304377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J7">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N7">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O7">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P7">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q7">
-        <v>0.1672699809097778</v>
+        <v>0.3181655573647778</v>
       </c>
       <c r="R7">
-        <v>1.505429828188</v>
+        <v>2.863490016283</v>
       </c>
       <c r="S7">
-        <v>0.4780240470505674</v>
+        <v>0.3459187897774912</v>
       </c>
       <c r="T7">
-        <v>0.4780240470505676</v>
+        <v>0.3459187897774911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J8">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N8">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O8">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P8">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q8">
-        <v>0.015610314044</v>
+        <v>0.002987791945666667</v>
       </c>
       <c r="R8">
-        <v>0.140492826396</v>
+        <v>0.026890127511</v>
       </c>
       <c r="S8">
-        <v>0.04461114573252749</v>
+        <v>0.003248413758271766</v>
       </c>
       <c r="T8">
-        <v>0.04461114573252751</v>
+        <v>0.003248413758271766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J9">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N9">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O9">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P9">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q9">
-        <v>0.05946623509088889</v>
+        <v>0.2941877754847778</v>
       </c>
       <c r="R9">
-        <v>0.535196115818</v>
+        <v>2.647689979363</v>
       </c>
       <c r="S9">
-        <v>0.1699425695297936</v>
+        <v>0.3198494522974171</v>
       </c>
       <c r="T9">
-        <v>0.1699425695297937</v>
+        <v>0.3198494522974171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H10">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I10">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J10">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.183918</v>
       </c>
       <c r="O10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q10">
-        <v>0.001152491494</v>
+        <v>0.007640668956666666</v>
       </c>
       <c r="R10">
-        <v>0.010372423446</v>
+        <v>0.06876602060999999</v>
       </c>
       <c r="S10">
-        <v>0.003293589472281877</v>
+        <v>0.00830715612485456</v>
       </c>
       <c r="T10">
-        <v>0.003293589472281879</v>
+        <v>0.008307156124854562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H11">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I11">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J11">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N11">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O11">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P11">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q11">
-        <v>0.005334880481333334</v>
+        <v>0.06727496889388888</v>
       </c>
       <c r="R11">
-        <v>0.04801392433200001</v>
+        <v>0.605474720045</v>
       </c>
       <c r="S11">
-        <v>0.0152460181100491</v>
+        <v>0.07314329060266997</v>
       </c>
       <c r="T11">
-        <v>0.01524601811004911</v>
+        <v>0.07314329060266997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H12">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I12">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J12">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N12">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O12">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P12">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q12">
-        <v>0.0004978727160000001</v>
+        <v>0.0006317579183333332</v>
       </c>
       <c r="R12">
-        <v>0.004480854444000001</v>
+        <v>0.005685821265</v>
       </c>
       <c r="S12">
-        <v>0.001422820337061841</v>
+        <v>0.0006868654682557623</v>
       </c>
       <c r="T12">
-        <v>0.001422820337061842</v>
+        <v>0.0006868654682557624</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H13">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I13">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J13">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N13">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O13">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P13">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q13">
-        <v>0.001896606044666667</v>
+        <v>0.06220495269388888</v>
       </c>
       <c r="R13">
-        <v>0.017069454402</v>
+        <v>0.559844574245</v>
       </c>
       <c r="S13">
-        <v>0.005420119570774294</v>
+        <v>0.067631022453401</v>
       </c>
       <c r="T13">
-        <v>0.005420119570774296</v>
+        <v>0.067631022453401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H14">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I14">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J14">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.183918</v>
       </c>
       <c r="O14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q14">
-        <v>0.003789855178666666</v>
+        <v>0.003650506640666666</v>
       </c>
       <c r="R14">
-        <v>0.034108696608</v>
+        <v>0.032854559766</v>
       </c>
       <c r="S14">
-        <v>0.01083064576434044</v>
+        <v>0.003968936328850732</v>
       </c>
       <c r="T14">
-        <v>0.01083064576434044</v>
+        <v>0.003968936328850732</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H15">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I15">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J15">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N15">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O15">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P15">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q15">
-        <v>0.01754323092622223</v>
+        <v>0.03214217525855555</v>
       </c>
       <c r="R15">
-        <v>0.157889078336</v>
+        <v>0.289279577327</v>
       </c>
       <c r="S15">
-        <v>0.05013503439220642</v>
+        <v>0.03494590193340151</v>
       </c>
       <c r="T15">
-        <v>0.05013503439220645</v>
+        <v>0.03494590193340151</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H16">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I16">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J16">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N16">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O16">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P16">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q16">
-        <v>0.001637205568</v>
+        <v>0.0003018369843333333</v>
       </c>
       <c r="R16">
-        <v>0.014734850112</v>
+        <v>0.002716532859</v>
       </c>
       <c r="S16">
-        <v>0.004678805050448443</v>
+        <v>0.0003281658932395582</v>
       </c>
       <c r="T16">
-        <v>0.004678805050448445</v>
+        <v>0.0003281658932395583</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H17">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I17">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J17">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N17">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O17">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P17">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q17">
-        <v>0.006236802855111111</v>
+        <v>0.02971985753855555</v>
       </c>
       <c r="R17">
-        <v>0.056131225696</v>
+        <v>0.267478717847</v>
       </c>
       <c r="S17">
-        <v>0.01782353130694039</v>
+        <v>0.03231228809694753</v>
       </c>
       <c r="T17">
-        <v>0.0178235313069404</v>
+        <v>0.03231228809694753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H18">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I18">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J18">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.183918</v>
       </c>
       <c r="O18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q18">
-        <v>0.001049640461333333</v>
+        <v>0.0007397999373333333</v>
       </c>
       <c r="R18">
-        <v>0.009446764152000001</v>
+        <v>0.006658199435999999</v>
       </c>
       <c r="S18">
-        <v>0.00299966185531653</v>
+        <v>0.000804331874007368</v>
       </c>
       <c r="T18">
-        <v>0.002999661855316531</v>
+        <v>0.000804331874007368</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H19">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I19">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J19">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N19">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O19">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P19">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q19">
-        <v>0.004858783287111113</v>
+        <v>0.006513829882444444</v>
       </c>
       <c r="R19">
-        <v>0.04372904958400001</v>
+        <v>0.058624468942</v>
       </c>
       <c r="S19">
-        <v>0.01388542784553366</v>
+        <v>0.007082024114785859</v>
       </c>
       <c r="T19">
-        <v>0.01388542784553367</v>
+        <v>0.007082024114785858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H20">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I20">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J20">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N20">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O20">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P20">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q20">
-        <v>0.0004534413920000001</v>
+        <v>6.116931266666666E-05</v>
       </c>
       <c r="R20">
-        <v>0.004080972528000001</v>
+        <v>0.0005505238139999999</v>
       </c>
       <c r="S20">
-        <v>0.001295844527064284</v>
+        <v>6.650504468311989E-05</v>
       </c>
       <c r="T20">
-        <v>0.001295844527064284</v>
+        <v>6.650504468311989E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H21">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I21">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J21">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N21">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O21">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P21">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q21">
-        <v>0.001727348491555556</v>
+        <v>0.006022930762444444</v>
       </c>
       <c r="R21">
-        <v>0.015546136424</v>
+        <v>0.05420637686199999</v>
       </c>
       <c r="S21">
-        <v>0.004936415441127203</v>
+        <v>0.00654830440326301</v>
       </c>
       <c r="T21">
-        <v>0.004936415441127205</v>
+        <v>0.00654830440326301</v>
       </c>
     </row>
   </sheetData>
